--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/15/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/15/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8078078078078078</v>
+        <v>0.1693169316931693</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1435.435435435435</v>
+        <v>807.6307630763076</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002402402402402403</v>
+        <v>0.06712671267126713</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5325325325325325</v>
+        <v>0.6985698569856986</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520.5205205205206</v>
+        <v>1946.414641464147</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.9929929929931</v>
+        <v>211.5211521152115</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.3333333333334</v>
+        <v>828.6543654365436</v>
       </c>
     </row>
   </sheetData>
